--- a/test.xlsx
+++ b/test.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\audit_project\AUTO_TB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B507DB-4DD0-4890-A18B-6D7DBC3D123E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20EBBCE6-9632-4A3C-A8C4-DA8B77AB9FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="21585" windowHeight="12765" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9307" xr2:uid="{AD87222F-1908-4485-9AD6-871B9054B230}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="test" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -41,15 +41,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="仿宋"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="仿宋"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,9 +96,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -106,44 +106,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874CB"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EE822F"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="F2BA02"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75BD42"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30C0B4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="E54C5E"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -171,14 +171,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -206,38 +223,81 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -248,45 +308,27 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
@@ -338,79 +380,502 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715E0D54-40E2-4260-842B-96EA8C7F2E1E}">
+  <dimension ref="B2:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>52</v>
+      </c>
+      <c r="C28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>58</v>
+      </c>
+      <c r="C31">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>62</v>
+      </c>
+      <c r="C33">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>66</v>
+      </c>
+      <c r="C35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>68</v>
+      </c>
+      <c r="C36">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>70</v>
+      </c>
+      <c r="C37">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>72</v>
+      </c>
+      <c r="C38">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>74</v>
+      </c>
+      <c r="C39">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>76</v>
+      </c>
+      <c r="C40">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>78</v>
+      </c>
+      <c r="C41">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>80</v>
+      </c>
+      <c r="C42">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>82</v>
+      </c>
+      <c r="C43">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>84</v>
+      </c>
+      <c r="C44">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>86</v>
+      </c>
+      <c r="C45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>88</v>
+      </c>
+      <c r="C46">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>90</v>
+      </c>
+      <c r="C47">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>92</v>
+      </c>
+      <c r="C48">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>94</v>
+      </c>
+      <c r="C49">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>96</v>
+      </c>
+      <c r="C50">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>98</v>
+      </c>
+      <c r="C51">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>100</v>
+      </c>
+      <c r="C52">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>102</v>
+      </c>
+      <c r="C53">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>104</v>
+      </c>
+      <c r="C54">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>106</v>
+      </c>
+      <c r="C55">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>108</v>
+      </c>
+      <c r="C56">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>110</v>
+      </c>
+      <c r="C57">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>112</v>
+      </c>
+      <c r="C58">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>10086</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>